--- a/analysis/compare_raf.xlsx
+++ b/analysis/compare_raf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="13320" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="13320" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="unc_mean" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="comp_acc_cart" sheetId="9" r:id="rId7"/>
     <sheet name="comp_acc_svm" sheetId="11" r:id="rId8"/>
     <sheet name="comp_acc_ipsm" sheetId="12" r:id="rId9"/>
+    <sheet name="acc_std" sheetId="13" r:id="rId10"/>
+    <sheet name="acc_mean" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="56">
   <si>
     <t>基于不确定性的自适应采样</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,12 +137,111 @@
     <t>补样数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>补样数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>CART</t>
+  </si>
+  <si>
+    <t>iPSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自适应补样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非自适应补样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分层随机补样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补样方法  分层随机补样  基于不确定性的自适应补样  基于不确定性的非自适应补样</t>
+  </si>
+  <si>
+    <t>补样数量</t>
+  </si>
+  <si>
+    <t>5     0.2786        0.4689         0.4246</t>
+  </si>
+  <si>
+    <t>10    0.4387        0.6518         0.6009</t>
+  </si>
+  <si>
+    <t>15    0.5930        0.6850         0.6631</t>
+  </si>
+  <si>
+    <t>20    0.6737        0.6988         0.6866</t>
+  </si>
+  <si>
+    <t>cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5     0.3628        0.5836         0.5843</t>
+  </si>
+  <si>
+    <t>10    0.5175        0.6995         0.6638</t>
+  </si>
+  <si>
+    <t>15    0.6122        0.7475         0.7095</t>
+  </si>
+  <si>
+    <t>20    0.6323        0.7587         0.7482</t>
+  </si>
+  <si>
+    <t>ipsm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5     0.3898        0.6231         0.6151</t>
+  </si>
+  <si>
+    <t>10    0.5934        0.6793         0.6719</t>
+  </si>
+  <si>
+    <t>15    0.6727        0.7104         0.6965</t>
+  </si>
+  <si>
+    <t>20    0.6815        0.7100         0.7055</t>
+  </si>
+  <si>
+    <t>样点数量最多时(20个补样点)的精度提高百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.18%  0.64%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.99%  1.40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.73%  -1.18%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +255,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -189,6 +296,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1349,11 +1465,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173560592"/>
-        <c:axId val="173561152"/>
+        <c:axId val="179201984"/>
+        <c:axId val="179202544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173560592"/>
+        <c:axId val="179201984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1567,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173561152"/>
+        <c:crossAx val="179202544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1459,7 +1575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173561152"/>
+        <c:axId val="179202544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1567,7 +1683,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173560592"/>
+        <c:crossAx val="179201984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2799,11 +2915,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173566752"/>
-        <c:axId val="173567312"/>
+        <c:axId val="179208144"/>
+        <c:axId val="179208704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173566752"/>
+        <c:axId val="179208144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,7 +3017,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173567312"/>
+        <c:crossAx val="179208704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2909,7 +3025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173567312"/>
+        <c:axId val="179208704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -3016,7 +3132,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173566752"/>
+        <c:crossAx val="179208144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3254,11 +3370,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173570112"/>
-        <c:axId val="173570672"/>
+        <c:axId val="179211504"/>
+        <c:axId val="180817648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173570112"/>
+        <c:axId val="179211504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3364,7 +3480,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173570672"/>
+        <c:crossAx val="180817648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3372,7 +3488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173570672"/>
+        <c:axId val="180817648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.1"/>
@@ -3479,7 +3595,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173570112"/>
+        <c:crossAx val="179211504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3676,11 +3792,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173572912"/>
-        <c:axId val="173573472"/>
+        <c:axId val="180819888"/>
+        <c:axId val="180820448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173572912"/>
+        <c:axId val="180819888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3786,7 +3902,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173573472"/>
+        <c:crossAx val="180820448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3794,7 +3910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173573472"/>
+        <c:axId val="180820448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3900,7 +4016,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173572912"/>
+        <c:crossAx val="180819888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5227,11 +5343,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="174407728"/>
-        <c:axId val="174408288"/>
+        <c:axId val="180825488"/>
+        <c:axId val="180826048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="174407728"/>
+        <c:axId val="180825488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5329,7 +5445,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174408288"/>
+        <c:crossAx val="180826048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5337,7 +5453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174408288"/>
+        <c:axId val="180826048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5443,7 +5559,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174407728"/>
+        <c:crossAx val="180825488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9246,6 +9362,356 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="5" customWidth="1"/>
+    <col min="9" max="10" width="13.125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.37210300876671E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>8.2737872558795982E-3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7.3585626615830679E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.6656000000000001E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.8955999999999998E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.122055</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3.057E-2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>3.3260999999999999E-2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>3.8516000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.5664893516678872E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.484587484791652E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6.9376989460963184E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>8.6257E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.141428</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3.0655999999999999E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3.5165000000000002E-2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>7.1239999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2.2109710213258936E-2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.2834415538785648E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4.6704270563717072E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.5025999999999999E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.7619E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.108626</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2.1433000000000001E-2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3.3570000000000003E-2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5.6956E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5">
+        <v>9.4522190222425875E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.5454592988637548E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5.6811677203429452E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.5186E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4.7320000000000001E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>7.3657E-2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.6726999999999999E-2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.8453000000000001E-2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4.9936000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="86.125" customWidth="1"/>
+    <col min="2" max="2" width="44.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
@@ -11207,7 +11673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15260,7 +15728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
